--- a/Assets/Documentos/Elementos de GDD.xlsx
+++ b/Assets/Documentos/Elementos de GDD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="FluxoDeJogo" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>katids</t>
   </si>
   <si>
-    <t>marjan</t>
-  </si>
-  <si>
     <t>arena Divina de Ananda</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
   </si>
   <si>
     <t>balão</t>
+  </si>
+  <si>
+    <t>Marjan</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34:N37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,19 +1069,19 @@
   <sheetData>
     <row r="2" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="J2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -1106,13 +1106,13 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1134,13 +1134,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1162,18 +1162,18 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>2</v>
@@ -1190,18 +1190,18 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>2</v>
@@ -1218,18 +1218,18 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>2</v>
@@ -1246,18 +1246,18 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>2</v>
@@ -1271,47 +1271,47 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>2</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="19" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
@@ -1341,16 +1341,16 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -1363,16 +1363,16 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
@@ -1388,13 +1388,13 @@
     </row>
     <row r="25" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
@@ -1410,13 +1410,13 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
@@ -1454,13 +1454,13 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
     </row>
     <row r="47" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
     </row>
     <row r="49" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
     </row>
     <row r="53" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
     </row>
     <row r="55" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="5:7" ht="45" x14ac:dyDescent="0.25">
@@ -1598,15 +1598,15 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
     </row>
     <row r="59" spans="5:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
     </row>
     <row r="63" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="5:7" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
     </row>
     <row r="65" spans="5:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E65" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1678,261 +1678,261 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1952,251 +1952,251 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Documentos/Elementos de GDD.xlsx
+++ b/Assets/Documentos/Elementos de GDD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FluxoDeJogo" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -743,6 +743,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase1" xfId="3" builtinId="30"/>
@@ -1052,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1944,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,8 +1956,8 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
+      <c r="C3" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>56</v>
@@ -1963,8 +1965,8 @@
       <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
+      <c r="G3" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -2005,8 +2007,8 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>59</v>
@@ -2096,8 +2098,8 @@
       <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>29</v>
+      <c r="G11" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
